--- a/sampledata/blankSampleTransfer.xlsx
+++ b/sampledata/blankSampleTransfer.xlsx
@@ -19,25 +19,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Source Plate ID</t>
+    <t>Source Plate Barcode</t>
   </si>
   <si>
-    <t>Source Well</t>
+    <t>Source Well Id</t>
   </si>
   <si>
-    <t>Destination Plate ID</t>
+    <t>Source Col/Row</t>
   </si>
   <si>
-    <t>Destination Well</t>
+    <t>Destination Plate Type</t>
+  </si>
+  <si>
+    <t>Destination Well Id</t>
+  </si>
+  <si>
+    <t>Destination Col/Row</t>
+  </si>
+  <si>
+    <t>Destination Plate Barcode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +70,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -71,12 +87,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,24 +115,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,119 +486,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35" customHeight="1">
+    <row r="1" spans="1:7" ht="35" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
